--- a/Src/Data/Tables/TeleporterDefine.xlsx
+++ b/Src/Data/Tables/TeleporterDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8615" tabRatio="599"/>
+    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Elements" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>主城传入点1</t>
   </si>
   <si>
-    <t>出城传入点2</t>
+    <t>主城传入点2</t>
   </si>
   <si>
     <t>野外-&gt;主城</t>
@@ -96,7 +96,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -286,11 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -303,20 +298,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -342,7 +323,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,24 +513,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,31 +773,31 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1304,7 +1267,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelCol="6"/>

--- a/Src/Data/Tables/TeleporterDefine.xlsx
+++ b/Src/Data/Tables/TeleporterDefine.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>传送目标</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>副本传入点</t>
+  </si>
+  <si>
+    <t>竞技场传送点A</t>
+  </si>
+  <si>
+    <t>竞技场传送点B</t>
   </si>
 </sst>
 </file>
@@ -962,9 +968,16 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F11" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F11" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F13" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F13" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
@@ -1264,10 +1277,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1469,6 +1482,34 @@
       </c>
       <c r="F11" s="7"/>
     </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Src/Data/Tables/TeleporterDefine.xlsx
+++ b/Src/Data/Tables/TeleporterDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>传送目标</t>
   </si>
@@ -968,16 +968,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F13" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F13" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F15" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:F15" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
@@ -1277,10 +1270,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -1510,6 +1503,37 @@
         <v>5</v>
       </c>
     </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
